--- a/Code/Results/Cases/Case_0_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9776077985697633</v>
+        <v>1.028520454038103</v>
       </c>
       <c r="D2">
-        <v>0.9931912319820809</v>
+        <v>1.036315002540566</v>
       </c>
       <c r="E2">
-        <v>0.9868592049702642</v>
+        <v>1.028440952735571</v>
       </c>
       <c r="F2">
-        <v>0.999769993282475</v>
+        <v>1.044338717707224</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04515006138524</v>
+        <v>1.026880918861363</v>
       </c>
       <c r="J2">
-        <v>1.000479525425489</v>
+        <v>1.033672315636142</v>
       </c>
       <c r="K2">
-        <v>1.004746245909439</v>
+        <v>1.039109096347769</v>
       </c>
       <c r="L2">
-        <v>0.9985046993735034</v>
+        <v>1.031257761356785</v>
       </c>
       <c r="M2">
-        <v>1.011232533394134</v>
+        <v>1.047110047383149</v>
       </c>
       <c r="N2">
-        <v>1.001900321108199</v>
+        <v>1.035140248888217</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9836629814881962</v>
+        <v>1.0297850521199</v>
       </c>
       <c r="D3">
-        <v>0.9984154536416677</v>
+        <v>1.037454630074341</v>
       </c>
       <c r="E3">
-        <v>0.9918023819138688</v>
+        <v>1.029525195328523</v>
       </c>
       <c r="F3">
-        <v>1.005412905398321</v>
+        <v>1.045554888254531</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045536233161583</v>
+        <v>1.026858063055652</v>
       </c>
       <c r="J3">
-        <v>1.004609139571008</v>
+        <v>1.034575943291568</v>
       </c>
       <c r="K3">
-        <v>1.009068649264076</v>
+        <v>1.04005742430864</v>
       </c>
       <c r="L3">
-        <v>1.002541238617924</v>
+        <v>1.03214919475778</v>
       </c>
       <c r="M3">
-        <v>1.015976992436804</v>
+        <v>1.048136379181452</v>
       </c>
       <c r="N3">
-        <v>1.006035799779478</v>
+        <v>1.036045159798562</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C4">
-        <v>0.9874848774262619</v>
+        <v>1.030603310983031</v>
       </c>
       <c r="D4">
-        <v>1.001718205805649</v>
+        <v>1.038192119407687</v>
       </c>
       <c r="E4">
-        <v>0.9949292647020489</v>
+        <v>1.030227048339168</v>
       </c>
       <c r="F4">
-        <v>1.008976865873385</v>
+        <v>1.046341380657557</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045761651895784</v>
+        <v>1.026840849476427</v>
       </c>
       <c r="J4">
-        <v>1.007214231191551</v>
+        <v>1.035160173170024</v>
       </c>
       <c r="K4">
-        <v>1.011795937738042</v>
+        <v>1.040670553071344</v>
       </c>
       <c r="L4">
-        <v>1.005089276766487</v>
+        <v>1.032725700443172</v>
       </c>
       <c r="M4">
-        <v>1.018968142045886</v>
+        <v>1.048799471330795</v>
       </c>
       <c r="N4">
-        <v>1.00864459092893</v>
+        <v>1.036630219350456</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9890696574324871</v>
+        <v>1.030947304429489</v>
       </c>
       <c r="D5">
-        <v>1.003088917196965</v>
+        <v>1.038502178963315</v>
       </c>
       <c r="E5">
-        <v>0.9962274183780465</v>
+        <v>1.030522174515524</v>
       </c>
       <c r="F5">
-        <v>1.010455126964113</v>
+        <v>1.046671915195816</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045850624410429</v>
+        <v>1.026833031603041</v>
       </c>
       <c r="J5">
-        <v>1.008294051280159</v>
+        <v>1.03540567030259</v>
       </c>
       <c r="K5">
-        <v>1.012926535877532</v>
+        <v>1.040928193162715</v>
       </c>
       <c r="L5">
-        <v>1.006145840153062</v>
+        <v>1.03296799001885</v>
       </c>
       <c r="M5">
-        <v>1.020207507076799</v>
+        <v>1.049077993604085</v>
       </c>
       <c r="N5">
-        <v>1.00972594448592</v>
+        <v>1.036876065117111</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9893344923903116</v>
+        <v>1.03100506236025</v>
       </c>
       <c r="D6">
-        <v>1.003318046974144</v>
+        <v>1.038554240481133</v>
       </c>
       <c r="E6">
-        <v>0.996444444656942</v>
+        <v>1.030571731472968</v>
       </c>
       <c r="F6">
-        <v>1.010702183898234</v>
+        <v>1.046727407166121</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045865225266887</v>
+        <v>1.026831684834707</v>
       </c>
       <c r="J6">
-        <v>1.008474476308747</v>
+        <v>1.0354468837546</v>
       </c>
       <c r="K6">
-        <v>1.013115452441115</v>
+        <v>1.040971445108456</v>
       </c>
       <c r="L6">
-        <v>1.006322402148939</v>
+        <v>1.033008667232135</v>
       </c>
       <c r="M6">
-        <v>1.020414560819682</v>
+        <v>1.049124744573417</v>
       </c>
       <c r="N6">
-        <v>1.009906625738745</v>
+        <v>1.036917337096949</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9875061381773914</v>
+        <v>1.030607907447501</v>
       </c>
       <c r="D7">
-        <v>1.001736590068476</v>
+        <v>1.038196262362247</v>
       </c>
       <c r="E7">
-        <v>0.9949466741015844</v>
+        <v>1.030230991564168</v>
       </c>
       <c r="F7">
-        <v>1.008996696029447</v>
+        <v>1.046345797694762</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045762863435933</v>
+        <v>1.02684074729882</v>
       </c>
       <c r="J7">
-        <v>1.007228719276379</v>
+        <v>1.035163453957646</v>
       </c>
       <c r="K7">
-        <v>1.011811106631705</v>
+        <v>1.040673996138002</v>
       </c>
       <c r="L7">
-        <v>1.00510345127042</v>
+        <v>1.032728938215438</v>
       </c>
       <c r="M7">
-        <v>1.018984772711339</v>
+        <v>1.048803193907591</v>
       </c>
       <c r="N7">
-        <v>1.008659099588501</v>
+        <v>1.036633504797174</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9796747764643549</v>
+        <v>1.028947836582486</v>
       </c>
       <c r="D8">
-        <v>0.9949733802240834</v>
+        <v>1.036700130437794</v>
       </c>
       <c r="E8">
-        <v>0.9885450990828771</v>
+        <v>1.028807321266975</v>
       </c>
       <c r="F8">
-        <v>1.001695690188994</v>
+        <v>1.044749822379461</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045285673796856</v>
+        <v>1.026873696079159</v>
       </c>
       <c r="J8">
-        <v>1.001889460302208</v>
+        <v>1.033977800478603</v>
       </c>
       <c r="K8">
-        <v>1.006221873551693</v>
+        <v>1.03942969302709</v>
       </c>
       <c r="L8">
-        <v>0.9998825029926385</v>
+        <v>1.031559090587125</v>
       </c>
       <c r="M8">
-        <v>1.012852741162232</v>
+        <v>1.047457111335194</v>
       </c>
       <c r="N8">
-        <v>1.003312258254165</v>
+        <v>1.035446167554194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.965085003806828</v>
+        <v>1.026022315250772</v>
       </c>
       <c r="D9">
-        <v>0.982420639110412</v>
+        <v>1.0340642637899</v>
       </c>
       <c r="E9">
-        <v>0.9766781405826196</v>
+        <v>1.026300688319896</v>
       </c>
       <c r="F9">
-        <v>0.9881178345319163</v>
+        <v>1.041934000713494</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044254375595463</v>
+        <v>1.026913227211592</v>
       </c>
       <c r="J9">
-        <v>0.9919339463382295</v>
+        <v>1.031884813463793</v>
       </c>
       <c r="K9">
-        <v>0.9958055171198409</v>
+        <v>1.037233169145287</v>
       </c>
       <c r="L9">
-        <v>0.9901612819985867</v>
+        <v>1.029495234564846</v>
       </c>
       <c r="M9">
-        <v>1.001406678945371</v>
+        <v>1.045077341756215</v>
       </c>
       <c r="N9">
-        <v>0.993342606318444</v>
+        <v>1.033350208257754</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9547460427128587</v>
+        <v>1.024071639419862</v>
       </c>
       <c r="D10">
-        <v>0.9735636197182491</v>
+        <v>1.032307276651265</v>
       </c>
       <c r="E10">
-        <v>0.9683150885430893</v>
+        <v>1.024630903393192</v>
       </c>
       <c r="F10">
-        <v>0.9785206430114284</v>
+        <v>1.040054348871996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043433992694215</v>
+        <v>1.026927174940004</v>
       </c>
       <c r="J10">
-        <v>0.9848777572988971</v>
+        <v>1.030486911090918</v>
       </c>
       <c r="K10">
-        <v>0.9884271794635519</v>
+        <v>1.035766120982132</v>
       </c>
       <c r="L10">
-        <v>0.9832810006112048</v>
+        <v>1.028117620342596</v>
       </c>
       <c r="M10">
-        <v>0.9932888543659754</v>
+        <v>1.04348552400367</v>
       </c>
       <c r="N10">
-        <v>0.9862763966813192</v>
+        <v>1.031950320703168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9501033287760792</v>
+        <v>1.023226863230478</v>
       </c>
       <c r="D11">
-        <v>0.9695970857019911</v>
+        <v>1.031546523065056</v>
       </c>
       <c r="E11">
-        <v>0.9645722228426268</v>
+        <v>1.023908158998578</v>
       </c>
       <c r="F11">
-        <v>0.9742189627444791</v>
+        <v>1.039239842245172</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043046013730931</v>
+        <v>1.026930282394829</v>
       </c>
       <c r="J11">
-        <v>0.9817099851618772</v>
+        <v>1.029880973890084</v>
       </c>
       <c r="K11">
-        <v>0.9851160717241398</v>
+        <v>1.035130215300255</v>
       </c>
       <c r="L11">
-        <v>0.9801946781968995</v>
+        <v>1.027520675570742</v>
       </c>
       <c r="M11">
-        <v>0.9896440183664151</v>
+        <v>1.042794976574207</v>
       </c>
       <c r="N11">
-        <v>0.9831041259445163</v>
+        <v>1.031343523002007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9483519317272303</v>
+        <v>1.022913054578384</v>
       </c>
       <c r="D12">
-        <v>0.9681025262526938</v>
+        <v>1.031263948526401</v>
       </c>
       <c r="E12">
-        <v>0.9631623133907152</v>
+        <v>1.023639740472647</v>
       </c>
       <c r="F12">
-        <v>0.9725976022673064</v>
+        <v>1.038937205597708</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042896862313525</v>
+        <v>1.026930996945894</v>
       </c>
       <c r="J12">
-        <v>0.9805152143306141</v>
+        <v>1.029655804548066</v>
       </c>
       <c r="K12">
-        <v>0.983867454087097</v>
+        <v>1.034893910228458</v>
       </c>
       <c r="L12">
-        <v>0.979031013174684</v>
+        <v>1.02729887774325</v>
       </c>
       <c r="M12">
-        <v>0.9882693173841033</v>
+        <v>1.042538282840253</v>
       </c>
       <c r="N12">
-        <v>0.9819076584016306</v>
+        <v>1.031118033893695</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9487288627974263</v>
+        <v>1.022980368605867</v>
       </c>
       <c r="D13">
-        <v>0.9684240994845796</v>
+        <v>1.031324561607772</v>
       </c>
       <c r="E13">
-        <v>0.9634656561489692</v>
+        <v>1.0236973153327</v>
       </c>
       <c r="F13">
-        <v>0.9729464813318839</v>
+        <v>1.039002126405083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042929085854516</v>
+        <v>1.026930863556654</v>
       </c>
       <c r="J13">
-        <v>0.9807723378255697</v>
+        <v>1.029704108566023</v>
       </c>
       <c r="K13">
-        <v>0.984136155785894</v>
+        <v>1.034944603082429</v>
       </c>
       <c r="L13">
-        <v>0.9792814248140899</v>
+        <v>1.027346457139954</v>
       </c>
       <c r="M13">
-        <v>0.9885651619383742</v>
+        <v>1.042593353304079</v>
       </c>
       <c r="N13">
-        <v>0.9821651470414415</v>
+        <v>1.031166406508899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9499591183126156</v>
+        <v>1.023200924158653</v>
       </c>
       <c r="D14">
-        <v>0.9694739867117309</v>
+        <v>1.031523165310434</v>
       </c>
       <c r="E14">
-        <v>0.9644560884077533</v>
+        <v>1.023885970614374</v>
       </c>
       <c r="F14">
-        <v>0.9740854302100628</v>
+        <v>1.039214828104966</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043033788347529</v>
+        <v>1.026930350424903</v>
       </c>
       <c r="J14">
-        <v>0.9816116022306328</v>
+        <v>1.029862363316487</v>
       </c>
       <c r="K14">
-        <v>0.9850132503237747</v>
+        <v>1.035110684326917</v>
       </c>
       <c r="L14">
-        <v>0.9800988487447533</v>
+        <v>1.02750234304769</v>
       </c>
       <c r="M14">
-        <v>0.9895308187105172</v>
+        <v>1.042773762149027</v>
       </c>
       <c r="N14">
-        <v>0.9830056032982246</v>
+        <v>1.031324885999261</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9507134943927206</v>
+        <v>1.023336812819051</v>
       </c>
       <c r="D15">
-        <v>0.9701179995248701</v>
+        <v>1.031645531978269</v>
       </c>
       <c r="E15">
-        <v>0.9650636802347633</v>
+        <v>1.024002212732351</v>
       </c>
       <c r="F15">
-        <v>0.9747840068347473</v>
+        <v>1.039345868317241</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043097627565153</v>
+        <v>1.026929976027344</v>
       </c>
       <c r="J15">
-        <v>0.9821262607688567</v>
+        <v>1.029959856349038</v>
       </c>
       <c r="K15">
-        <v>0.9855511361287251</v>
+        <v>1.035212998979907</v>
       </c>
       <c r="L15">
-        <v>0.9806001653707351</v>
+        <v>1.027598380713479</v>
       </c>
       <c r="M15">
-        <v>0.9901229866433924</v>
+        <v>1.04288489228739</v>
       </c>
       <c r="N15">
-        <v>0.9835209927106052</v>
+        <v>1.031422517483101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9550505063204255</v>
+        <v>1.024127701632225</v>
       </c>
       <c r="D16">
-        <v>0.9738239749344455</v>
+        <v>1.032357765911716</v>
       </c>
       <c r="E16">
-        <v>0.9685608139848015</v>
+        <v>1.02467887538898</v>
       </c>
       <c r="F16">
-        <v>0.978802922851546</v>
+        <v>1.040108392100833</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043459041758285</v>
+        <v>1.026926907003469</v>
       </c>
       <c r="J16">
-        <v>0.9850855213845218</v>
+        <v>1.030527111597621</v>
       </c>
       <c r="K16">
-        <v>0.9886443729345104</v>
+        <v>1.03580830981814</v>
       </c>
       <c r="L16">
-        <v>0.983483475240956</v>
+        <v>1.028157228436325</v>
       </c>
       <c r="M16">
-        <v>0.9935279038423734</v>
+        <v>1.043531326279159</v>
       </c>
       <c r="N16">
-        <v>0.9864844558157764</v>
+        <v>1.031990578299201</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.957725264027625</v>
+        <v>1.024623770842143</v>
       </c>
       <c r="D17">
-        <v>0.9761124645763836</v>
+        <v>1.032804539119777</v>
       </c>
       <c r="E17">
-        <v>0.9707209882951411</v>
+        <v>1.025103402719714</v>
       </c>
       <c r="F17">
-        <v>0.9812837145860682</v>
+        <v>1.040586539937908</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043676899712777</v>
+        <v>1.026924197477057</v>
       </c>
       <c r="J17">
-        <v>0.9869108631867234</v>
+        <v>1.030882764290357</v>
       </c>
       <c r="K17">
-        <v>0.9905527063299293</v>
+        <v>1.03618155363576</v>
       </c>
       <c r="L17">
-        <v>0.9852626281381408</v>
+        <v>1.028507662974947</v>
       </c>
       <c r="M17">
-        <v>0.9956280641486119</v>
+        <v>1.043936473616136</v>
       </c>
       <c r="N17">
-        <v>0.9883123898127066</v>
+        <v>1.032346736059555</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9592695433400481</v>
+        <v>1.024913108181628</v>
       </c>
       <c r="D18">
-        <v>0.9774347318891238</v>
+        <v>1.033065137723501</v>
       </c>
       <c r="E18">
-        <v>0.9719693474689831</v>
+        <v>1.025351049797073</v>
       </c>
       <c r="F18">
-        <v>0.9827167433882533</v>
+        <v>1.040865377229289</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043800821539834</v>
+        <v>1.026922334107323</v>
       </c>
       <c r="J18">
-        <v>0.9879647991591477</v>
+        <v>1.031090149216139</v>
       </c>
       <c r="K18">
-        <v>0.9916546811075093</v>
+        <v>1.036399196469465</v>
       </c>
       <c r="L18">
-        <v>0.986290128123774</v>
+        <v>1.028712024252956</v>
       </c>
       <c r="M18">
-        <v>0.9968406297886115</v>
+        <v>1.044172665813425</v>
       </c>
       <c r="N18">
-        <v>0.9893678224951001</v>
+        <v>1.032554415495719</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9597934687268207</v>
+        <v>1.025011762888286</v>
       </c>
       <c r="D19">
-        <v>0.9778835011717989</v>
+        <v>1.033153995735219</v>
       </c>
       <c r="E19">
-        <v>0.9723930718613486</v>
+        <v>1.025435495759624</v>
       </c>
       <c r="F19">
-        <v>0.9832030443867086</v>
+        <v>1.04096044371077</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043842544621718</v>
+        <v>1.026921650728612</v>
       </c>
       <c r="J19">
-        <v>0.9883223753189889</v>
+        <v>1.031160851774427</v>
       </c>
       <c r="K19">
-        <v>0.9920285755259707</v>
+        <v>1.036473396248935</v>
       </c>
       <c r="L19">
-        <v>0.9866387743200058</v>
+        <v>1.02878169921563</v>
       </c>
       <c r="M19">
-        <v>0.9972520151711783</v>
+        <v>1.044253180361224</v>
       </c>
       <c r="N19">
-        <v>0.9897259064541029</v>
+        <v>1.03262521845975</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9574399420427733</v>
+        <v>1.024570548516945</v>
       </c>
       <c r="D20">
-        <v>0.9758682416482305</v>
+        <v>1.032756604250403</v>
       </c>
       <c r="E20">
-        <v>0.9704904348758157</v>
+        <v>1.025057852126775</v>
       </c>
       <c r="F20">
-        <v>0.9810190055728627</v>
+        <v>1.040535245239177</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043653852362303</v>
+        <v>1.026924517444623</v>
       </c>
       <c r="J20">
-        <v>0.9867161422478193</v>
+        <v>1.030844612473223</v>
       </c>
       <c r="K20">
-        <v>0.9903491195205862</v>
+        <v>1.036141514735822</v>
       </c>
       <c r="L20">
-        <v>0.9850728101729294</v>
+        <v>1.028470068945195</v>
       </c>
       <c r="M20">
-        <v>0.9954040310623453</v>
+        <v>1.043893017915089</v>
       </c>
       <c r="N20">
-        <v>0.9881173923477345</v>
+        <v>1.032308530062465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9495975977298267</v>
+        <v>1.023135976654106</v>
       </c>
       <c r="D21">
-        <v>0.9691654192168342</v>
+        <v>1.031464681395861</v>
       </c>
       <c r="E21">
-        <v>0.964164984727929</v>
+        <v>1.023830415219821</v>
       </c>
       <c r="F21">
-        <v>0.9737507010798363</v>
+        <v>1.039152195326529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043003096182628</v>
+        <v>1.02693051366078</v>
       </c>
       <c r="J21">
-        <v>0.98136497048781</v>
+        <v>1.029815763936115</v>
       </c>
       <c r="K21">
-        <v>0.9847554955044435</v>
+        <v>1.035061780351634</v>
       </c>
       <c r="L21">
-        <v>0.9798586244624397</v>
+        <v>1.027456440366522</v>
       </c>
       <c r="M21">
-        <v>0.9892470438559822</v>
+        <v>1.042720641598288</v>
       </c>
       <c r="N21">
-        <v>0.9827586213100381</v>
+        <v>1.031278220442423</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9445101205942703</v>
+        <v>1.022233880444361</v>
       </c>
       <c r="D22">
-        <v>0.9648275211933651</v>
+        <v>1.030652415924478</v>
       </c>
       <c r="E22">
-        <v>0.9600734948861043</v>
+        <v>1.023058912851418</v>
       </c>
       <c r="F22">
-        <v>0.9690438170690882</v>
+        <v>1.038282080214551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042564719233766</v>
+        <v>1.02693174016323</v>
       </c>
       <c r="J22">
-        <v>0.9778949394108103</v>
+        <v>1.029168322311654</v>
       </c>
       <c r="K22">
-        <v>0.9811295057234002</v>
+        <v>1.034382321088581</v>
       </c>
       <c r="L22">
-        <v>0.9764796838824962</v>
+        <v>1.026818749450045</v>
       </c>
       <c r="M22">
-        <v>0.9852545183487141</v>
+        <v>1.041982400851842</v>
       </c>
       <c r="N22">
-        <v>0.979283662390891</v>
+        <v>1.030629859376593</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9472226514843491</v>
+        <v>1.022712111476121</v>
       </c>
       <c r="D23">
-        <v>0.9671393672103721</v>
+        <v>1.031083012147884</v>
       </c>
       <c r="E23">
-        <v>0.9622538124944439</v>
+        <v>1.02346787905059</v>
       </c>
       <c r="F23">
-        <v>0.9715525844070952</v>
+        <v>1.038743396156531</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042799923873307</v>
+        <v>1.026931330805649</v>
       </c>
       <c r="J23">
-        <v>0.9797449174452942</v>
+        <v>1.029511597369375</v>
       </c>
       <c r="K23">
-        <v>0.9830625040250617</v>
+        <v>1.03474257151792</v>
       </c>
       <c r="L23">
-        <v>0.978280881503084</v>
+        <v>1.027156838236897</v>
       </c>
       <c r="M23">
-        <v>0.9873830248515325</v>
+        <v>1.042373862986745</v>
       </c>
       <c r="N23">
-        <v>0.9811362676063795</v>
+        <v>1.03097362192427</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9575689156378662</v>
+        <v>1.02459459743006</v>
       </c>
       <c r="D24">
-        <v>0.9759786342133324</v>
+        <v>1.032778263944243</v>
       </c>
       <c r="E24">
-        <v>0.9705946478931488</v>
+        <v>1.02507843439421</v>
       </c>
       <c r="F24">
-        <v>0.981138659251796</v>
+        <v>1.040558423285645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043664276196793</v>
+        <v>1.026924373739448</v>
       </c>
       <c r="J24">
-        <v>0.9868041614035767</v>
+        <v>1.030861851826503</v>
       </c>
       <c r="K24">
-        <v>0.9904411459191949</v>
+        <v>1.036159606788946</v>
       </c>
       <c r="L24">
-        <v>0.9851586123290017</v>
+        <v>1.028487056196542</v>
       </c>
       <c r="M24">
-        <v>0.9955053002596733</v>
+        <v>1.043912654057195</v>
       </c>
       <c r="N24">
-        <v>0.9882055365007891</v>
+        <v>1.032325793897604</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9689583399708268</v>
+        <v>1.026778679444768</v>
       </c>
       <c r="D25">
-        <v>0.9857470881792969</v>
+        <v>1.034745646895736</v>
       </c>
       <c r="E25">
-        <v>0.979821143500448</v>
+        <v>1.026948477443206</v>
       </c>
       <c r="F25">
-        <v>0.991718935815839</v>
+        <v>1.042662381955979</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044544024054593</v>
+        <v>1.026905197884748</v>
       </c>
       <c r="J25">
-        <v>0.9945775231764862</v>
+        <v>1.032426349183352</v>
       </c>
       <c r="K25">
-        <v>0.9985707666312514</v>
+        <v>1.037801493402287</v>
       </c>
       <c r="L25">
-        <v>0.9927410012591198</v>
+        <v>1.030029086875936</v>
       </c>
       <c r="M25">
-        <v>1.004447179435083</v>
+        <v>1.04569349975558</v>
       </c>
       <c r="N25">
-        <v>0.9959899373390328</v>
+        <v>1.03389251302015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_245/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_245/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028520454038103</v>
+        <v>0.9776077985697629</v>
       </c>
       <c r="D2">
-        <v>1.036315002540566</v>
+        <v>0.9931912319820804</v>
       </c>
       <c r="E2">
-        <v>1.028440952735571</v>
+        <v>0.9868592049702635</v>
       </c>
       <c r="F2">
-        <v>1.044338717707224</v>
+        <v>0.9997699932824743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026880918861363</v>
+        <v>1.04515006138524</v>
       </c>
       <c r="J2">
-        <v>1.033672315636142</v>
+        <v>1.000479525425489</v>
       </c>
       <c r="K2">
-        <v>1.039109096347769</v>
+        <v>1.004746245909439</v>
       </c>
       <c r="L2">
-        <v>1.031257761356785</v>
+        <v>0.9985046993735028</v>
       </c>
       <c r="M2">
-        <v>1.047110047383149</v>
+        <v>1.011232533394133</v>
       </c>
       <c r="N2">
-        <v>1.035140248888217</v>
+        <v>1.001900321108199</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0297850521199</v>
+        <v>0.9836629814881965</v>
       </c>
       <c r="D3">
-        <v>1.037454630074341</v>
+        <v>0.9984154536416681</v>
       </c>
       <c r="E3">
-        <v>1.029525195328523</v>
+        <v>0.9918023819138693</v>
       </c>
       <c r="F3">
-        <v>1.045554888254531</v>
+        <v>1.005412905398321</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026858063055652</v>
+        <v>1.045536233161583</v>
       </c>
       <c r="J3">
-        <v>1.034575943291568</v>
+        <v>1.004609139571008</v>
       </c>
       <c r="K3">
-        <v>1.04005742430864</v>
+        <v>1.009068649264076</v>
       </c>
       <c r="L3">
-        <v>1.03214919475778</v>
+        <v>1.002541238617924</v>
       </c>
       <c r="M3">
-        <v>1.048136379181452</v>
+        <v>1.015976992436804</v>
       </c>
       <c r="N3">
-        <v>1.036045159798562</v>
+        <v>1.006035799779478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030603310983031</v>
+        <v>0.9874848774262628</v>
       </c>
       <c r="D4">
-        <v>1.038192119407687</v>
+        <v>1.00171820580565</v>
       </c>
       <c r="E4">
-        <v>1.030227048339168</v>
+        <v>0.9949292647020496</v>
       </c>
       <c r="F4">
-        <v>1.046341380657557</v>
+        <v>1.008976865873386</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026840849476427</v>
+        <v>1.045761651895784</v>
       </c>
       <c r="J4">
-        <v>1.035160173170024</v>
+        <v>1.007214231191552</v>
       </c>
       <c r="K4">
-        <v>1.040670553071344</v>
+        <v>1.011795937738043</v>
       </c>
       <c r="L4">
-        <v>1.032725700443172</v>
+        <v>1.005089276766487</v>
       </c>
       <c r="M4">
-        <v>1.048799471330795</v>
+        <v>1.018968142045886</v>
       </c>
       <c r="N4">
-        <v>1.036630219350456</v>
+        <v>1.008644590928931</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030947304429489</v>
+        <v>0.989069657432488</v>
       </c>
       <c r="D5">
-        <v>1.038502178963315</v>
+        <v>1.003088917196966</v>
       </c>
       <c r="E5">
-        <v>1.030522174515524</v>
+        <v>0.9962274183780473</v>
       </c>
       <c r="F5">
-        <v>1.046671915195816</v>
+        <v>1.010455126964114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026833031603041</v>
+        <v>1.045850624410429</v>
       </c>
       <c r="J5">
-        <v>1.03540567030259</v>
+        <v>1.008294051280159</v>
       </c>
       <c r="K5">
-        <v>1.040928193162715</v>
+        <v>1.012926535877532</v>
       </c>
       <c r="L5">
-        <v>1.03296799001885</v>
+        <v>1.006145840153062</v>
       </c>
       <c r="M5">
-        <v>1.049077993604085</v>
+        <v>1.0202075070768</v>
       </c>
       <c r="N5">
-        <v>1.036876065117111</v>
+        <v>1.009725944485921</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03100506236025</v>
+        <v>0.9893344923903112</v>
       </c>
       <c r="D6">
-        <v>1.038554240481133</v>
+        <v>1.003318046974143</v>
       </c>
       <c r="E6">
-        <v>1.030571731472968</v>
+        <v>0.9964444446569417</v>
       </c>
       <c r="F6">
-        <v>1.046727407166121</v>
+        <v>1.010702183898234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026831684834707</v>
+        <v>1.045865225266887</v>
       </c>
       <c r="J6">
-        <v>1.0354468837546</v>
+        <v>1.008474476308747</v>
       </c>
       <c r="K6">
-        <v>1.040971445108456</v>
+        <v>1.013115452441115</v>
       </c>
       <c r="L6">
-        <v>1.033008667232135</v>
+        <v>1.006322402148939</v>
       </c>
       <c r="M6">
-        <v>1.049124744573417</v>
+        <v>1.020414560819682</v>
       </c>
       <c r="N6">
-        <v>1.036917337096949</v>
+        <v>1.009906625738745</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030607907447501</v>
+        <v>0.9875061381773905</v>
       </c>
       <c r="D7">
-        <v>1.038196262362247</v>
+        <v>1.001736590068475</v>
       </c>
       <c r="E7">
-        <v>1.030230991564168</v>
+        <v>0.9949466741015836</v>
       </c>
       <c r="F7">
-        <v>1.046345797694762</v>
+        <v>1.008996696029446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02684074729882</v>
+        <v>1.045762863435933</v>
       </c>
       <c r="J7">
-        <v>1.035163453957646</v>
+        <v>1.007228719276378</v>
       </c>
       <c r="K7">
-        <v>1.040673996138002</v>
+        <v>1.011811106631704</v>
       </c>
       <c r="L7">
-        <v>1.032728938215438</v>
+        <v>1.005103451270419</v>
       </c>
       <c r="M7">
-        <v>1.048803193907591</v>
+        <v>1.018984772711338</v>
       </c>
       <c r="N7">
-        <v>1.036633504797174</v>
+        <v>1.0086590995885</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028947836582486</v>
+        <v>0.9796747764643545</v>
       </c>
       <c r="D8">
-        <v>1.036700130437794</v>
+        <v>0.9949733802240832</v>
       </c>
       <c r="E8">
-        <v>1.028807321266975</v>
+        <v>0.9885450990828767</v>
       </c>
       <c r="F8">
-        <v>1.044749822379461</v>
+        <v>1.001695690188994</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026873696079159</v>
+        <v>1.045285673796856</v>
       </c>
       <c r="J8">
-        <v>1.033977800478603</v>
+        <v>1.001889460302208</v>
       </c>
       <c r="K8">
-        <v>1.03942969302709</v>
+        <v>1.006221873551693</v>
       </c>
       <c r="L8">
-        <v>1.031559090587125</v>
+        <v>0.999882502992638</v>
       </c>
       <c r="M8">
-        <v>1.047457111335194</v>
+        <v>1.012852741162231</v>
       </c>
       <c r="N8">
-        <v>1.035446167554194</v>
+        <v>1.003312258254164</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026022315250772</v>
+        <v>0.9650850038068283</v>
       </c>
       <c r="D9">
-        <v>1.0340642637899</v>
+        <v>0.9824206391104121</v>
       </c>
       <c r="E9">
-        <v>1.026300688319896</v>
+        <v>0.9766781405826195</v>
       </c>
       <c r="F9">
-        <v>1.041934000713494</v>
+        <v>0.9881178345319163</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026913227211592</v>
+        <v>1.044254375595463</v>
       </c>
       <c r="J9">
-        <v>1.031884813463793</v>
+        <v>0.9919339463382296</v>
       </c>
       <c r="K9">
-        <v>1.037233169145287</v>
+        <v>0.9958055171198409</v>
       </c>
       <c r="L9">
-        <v>1.029495234564846</v>
+        <v>0.9901612819985866</v>
       </c>
       <c r="M9">
-        <v>1.045077341756215</v>
+        <v>1.001406678945371</v>
       </c>
       <c r="N9">
-        <v>1.033350208257754</v>
+        <v>0.9933426063184438</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024071639419862</v>
+        <v>0.9547460427128591</v>
       </c>
       <c r="D10">
-        <v>1.032307276651265</v>
+        <v>0.9735636197182498</v>
       </c>
       <c r="E10">
-        <v>1.024630903393192</v>
+        <v>0.9683150885430898</v>
       </c>
       <c r="F10">
-        <v>1.040054348871996</v>
+        <v>0.9785206430114287</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026927174940004</v>
+        <v>1.043433992694216</v>
       </c>
       <c r="J10">
-        <v>1.030486911090918</v>
+        <v>0.9848777572988976</v>
       </c>
       <c r="K10">
-        <v>1.035766120982132</v>
+        <v>0.9884271794635524</v>
       </c>
       <c r="L10">
-        <v>1.028117620342596</v>
+        <v>0.9832810006112052</v>
       </c>
       <c r="M10">
-        <v>1.04348552400367</v>
+        <v>0.9932888543659758</v>
       </c>
       <c r="N10">
-        <v>1.031950320703168</v>
+        <v>0.9862763966813197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023226863230478</v>
+        <v>0.9501033287760794</v>
       </c>
       <c r="D11">
-        <v>1.031546523065056</v>
+        <v>0.9695970857019911</v>
       </c>
       <c r="E11">
-        <v>1.023908158998578</v>
+        <v>0.9645722228426269</v>
       </c>
       <c r="F11">
-        <v>1.039239842245172</v>
+        <v>0.9742189627444789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026930282394829</v>
+        <v>1.043046013730931</v>
       </c>
       <c r="J11">
-        <v>1.029880973890084</v>
+        <v>0.9817099851618774</v>
       </c>
       <c r="K11">
-        <v>1.035130215300255</v>
+        <v>0.98511607172414</v>
       </c>
       <c r="L11">
-        <v>1.027520675570742</v>
+        <v>0.9801946781968995</v>
       </c>
       <c r="M11">
-        <v>1.042794976574207</v>
+        <v>0.9896440183664148</v>
       </c>
       <c r="N11">
-        <v>1.031343523002007</v>
+        <v>0.9831041259445167</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022913054578384</v>
+        <v>0.9483519317272294</v>
       </c>
       <c r="D12">
-        <v>1.031263948526401</v>
+        <v>0.9681025262526931</v>
       </c>
       <c r="E12">
-        <v>1.023639740472647</v>
+        <v>0.9631623133907146</v>
       </c>
       <c r="F12">
-        <v>1.038937205597708</v>
+        <v>0.9725976022673057</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026930996945894</v>
+        <v>1.042896862313524</v>
       </c>
       <c r="J12">
-        <v>1.029655804548066</v>
+        <v>0.9805152143306134</v>
       </c>
       <c r="K12">
-        <v>1.034893910228458</v>
+        <v>0.9838674540870963</v>
       </c>
       <c r="L12">
-        <v>1.02729887774325</v>
+        <v>0.9790310131746834</v>
       </c>
       <c r="M12">
-        <v>1.042538282840253</v>
+        <v>0.9882693173841027</v>
       </c>
       <c r="N12">
-        <v>1.031118033893695</v>
+        <v>0.9819076584016301</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022980368605867</v>
+        <v>0.9487288627974271</v>
       </c>
       <c r="D13">
-        <v>1.031324561607772</v>
+        <v>0.9684240994845809</v>
       </c>
       <c r="E13">
-        <v>1.0236973153327</v>
+        <v>0.9634656561489701</v>
       </c>
       <c r="F13">
-        <v>1.039002126405083</v>
+        <v>0.9729464813318847</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026930863556654</v>
+        <v>1.042929085854515</v>
       </c>
       <c r="J13">
-        <v>1.029704108566023</v>
+        <v>0.9807723378255707</v>
       </c>
       <c r="K13">
-        <v>1.034944603082429</v>
+        <v>0.9841361557858951</v>
       </c>
       <c r="L13">
-        <v>1.027346457139954</v>
+        <v>0.9792814248140908</v>
       </c>
       <c r="M13">
-        <v>1.042593353304079</v>
+        <v>0.9885651619383747</v>
       </c>
       <c r="N13">
-        <v>1.031166406508899</v>
+        <v>0.9821651470414425</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023200924158653</v>
+        <v>0.9499591183126158</v>
       </c>
       <c r="D14">
-        <v>1.031523165310434</v>
+        <v>0.9694739867117315</v>
       </c>
       <c r="E14">
-        <v>1.023885970614374</v>
+        <v>0.9644560884077534</v>
       </c>
       <c r="F14">
-        <v>1.039214828104966</v>
+        <v>0.9740854302100633</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026930350424903</v>
+        <v>1.043033788347529</v>
       </c>
       <c r="J14">
-        <v>1.029862363316487</v>
+        <v>0.981611602230633</v>
       </c>
       <c r="K14">
-        <v>1.035110684326917</v>
+        <v>0.9850132503237751</v>
       </c>
       <c r="L14">
-        <v>1.02750234304769</v>
+        <v>0.9800988487447533</v>
       </c>
       <c r="M14">
-        <v>1.042773762149027</v>
+        <v>0.9895308187105176</v>
       </c>
       <c r="N14">
-        <v>1.031324885999261</v>
+        <v>0.9830056032982248</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023336812819051</v>
+        <v>0.9507134943927201</v>
       </c>
       <c r="D15">
-        <v>1.031645531978269</v>
+        <v>0.9701179995248694</v>
       </c>
       <c r="E15">
-        <v>1.024002212732351</v>
+        <v>0.9650636802347631</v>
       </c>
       <c r="F15">
-        <v>1.039345868317241</v>
+        <v>0.9747840068347468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026929976027344</v>
+        <v>1.043097627565153</v>
       </c>
       <c r="J15">
-        <v>1.029959856349038</v>
+        <v>0.9821262607688562</v>
       </c>
       <c r="K15">
-        <v>1.035212998979907</v>
+        <v>0.9855511361287248</v>
       </c>
       <c r="L15">
-        <v>1.027598380713479</v>
+        <v>0.9806001653707347</v>
       </c>
       <c r="M15">
-        <v>1.04288489228739</v>
+        <v>0.990122986643392</v>
       </c>
       <c r="N15">
-        <v>1.031422517483101</v>
+        <v>0.9835209927106046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024127701632225</v>
+        <v>0.9550505063204232</v>
       </c>
       <c r="D16">
-        <v>1.032357765911716</v>
+        <v>0.9738239749344433</v>
       </c>
       <c r="E16">
-        <v>1.02467887538898</v>
+        <v>0.9685608139847992</v>
       </c>
       <c r="F16">
-        <v>1.040108392100833</v>
+        <v>0.978802922851544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026926907003469</v>
+        <v>1.043459041758284</v>
       </c>
       <c r="J16">
-        <v>1.030527111597621</v>
+        <v>0.9850855213845195</v>
       </c>
       <c r="K16">
-        <v>1.03580830981814</v>
+        <v>0.9886443729345081</v>
       </c>
       <c r="L16">
-        <v>1.028157228436325</v>
+        <v>0.9834834752409537</v>
       </c>
       <c r="M16">
-        <v>1.043531326279159</v>
+        <v>0.9935279038423716</v>
       </c>
       <c r="N16">
-        <v>1.031990578299201</v>
+        <v>0.986484455815774</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024623770842143</v>
+        <v>0.9577252640276236</v>
       </c>
       <c r="D17">
-        <v>1.032804539119777</v>
+        <v>0.9761124645763823</v>
       </c>
       <c r="E17">
-        <v>1.025103402719714</v>
+        <v>0.9707209882951401</v>
       </c>
       <c r="F17">
-        <v>1.040586539937908</v>
+        <v>0.9812837145860669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026924197477057</v>
+        <v>1.043676899712777</v>
       </c>
       <c r="J17">
-        <v>1.030882764290357</v>
+        <v>0.9869108631867219</v>
       </c>
       <c r="K17">
-        <v>1.03618155363576</v>
+        <v>0.990552706329928</v>
       </c>
       <c r="L17">
-        <v>1.028507662974947</v>
+        <v>0.9852626281381395</v>
       </c>
       <c r="M17">
-        <v>1.043936473616136</v>
+        <v>0.9956280641486107</v>
       </c>
       <c r="N17">
-        <v>1.032346736059555</v>
+        <v>0.9883123898127053</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024913108181628</v>
+        <v>0.9592695433400503</v>
       </c>
       <c r="D18">
-        <v>1.033065137723501</v>
+        <v>0.9774347318891256</v>
       </c>
       <c r="E18">
-        <v>1.025351049797073</v>
+        <v>0.9719693474689847</v>
       </c>
       <c r="F18">
-        <v>1.040865377229289</v>
+        <v>0.9827167433882549</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026922334107323</v>
+        <v>1.043800821539834</v>
       </c>
       <c r="J18">
-        <v>1.031090149216139</v>
+        <v>0.9879647991591498</v>
       </c>
       <c r="K18">
-        <v>1.036399196469465</v>
+        <v>0.9916546811075112</v>
       </c>
       <c r="L18">
-        <v>1.028712024252956</v>
+        <v>0.9862901281237758</v>
       </c>
       <c r="M18">
-        <v>1.044172665813425</v>
+        <v>0.9968406297886132</v>
       </c>
       <c r="N18">
-        <v>1.032554415495719</v>
+        <v>0.9893678224951021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025011762888286</v>
+        <v>0.9597934687268196</v>
       </c>
       <c r="D19">
-        <v>1.033153995735219</v>
+        <v>0.9778835011717981</v>
       </c>
       <c r="E19">
-        <v>1.025435495759624</v>
+        <v>0.9723930718613474</v>
       </c>
       <c r="F19">
-        <v>1.04096044371077</v>
+        <v>0.9832030443867079</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026921650728612</v>
+        <v>1.043842544621718</v>
       </c>
       <c r="J19">
-        <v>1.031160851774427</v>
+        <v>0.9883223753189879</v>
       </c>
       <c r="K19">
-        <v>1.036473396248935</v>
+        <v>0.9920285755259698</v>
       </c>
       <c r="L19">
-        <v>1.02878169921563</v>
+        <v>0.9866387743200047</v>
       </c>
       <c r="M19">
-        <v>1.044253180361224</v>
+        <v>0.9972520151711779</v>
       </c>
       <c r="N19">
-        <v>1.03262521845975</v>
+        <v>0.9897259064541016</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024570548516945</v>
+        <v>0.9574399420427731</v>
       </c>
       <c r="D20">
-        <v>1.032756604250403</v>
+        <v>0.9758682416482305</v>
       </c>
       <c r="E20">
-        <v>1.025057852126775</v>
+        <v>0.9704904348758153</v>
       </c>
       <c r="F20">
-        <v>1.040535245239177</v>
+        <v>0.9810190055728627</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026924517444623</v>
+        <v>1.043653852362303</v>
       </c>
       <c r="J20">
-        <v>1.030844612473223</v>
+        <v>0.986716142247819</v>
       </c>
       <c r="K20">
-        <v>1.036141514735822</v>
+        <v>0.9903491195205864</v>
       </c>
       <c r="L20">
-        <v>1.028470068945195</v>
+        <v>0.9850728101729289</v>
       </c>
       <c r="M20">
-        <v>1.043893017915089</v>
+        <v>0.9954040310623455</v>
       </c>
       <c r="N20">
-        <v>1.032308530062465</v>
+        <v>0.9881173923477342</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023135976654106</v>
+        <v>0.9495975977298264</v>
       </c>
       <c r="D21">
-        <v>1.031464681395861</v>
+        <v>0.9691654192168343</v>
       </c>
       <c r="E21">
-        <v>1.023830415219821</v>
+        <v>0.9641649847279289</v>
       </c>
       <c r="F21">
-        <v>1.039152195326529</v>
+        <v>0.9737507010798363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02693051366078</v>
+        <v>1.043003096182628</v>
       </c>
       <c r="J21">
-        <v>1.029815763936115</v>
+        <v>0.9813649704878098</v>
       </c>
       <c r="K21">
-        <v>1.035061780351634</v>
+        <v>0.9847554955044436</v>
       </c>
       <c r="L21">
-        <v>1.027456440366522</v>
+        <v>0.9798586244624394</v>
       </c>
       <c r="M21">
-        <v>1.042720641598288</v>
+        <v>0.9892470438559823</v>
       </c>
       <c r="N21">
-        <v>1.031278220442423</v>
+        <v>0.9827586213100377</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022233880444361</v>
+        <v>0.9445101205942692</v>
       </c>
       <c r="D22">
-        <v>1.030652415924478</v>
+        <v>0.964827521193364</v>
       </c>
       <c r="E22">
-        <v>1.023058912851418</v>
+        <v>0.9600734948861031</v>
       </c>
       <c r="F22">
-        <v>1.038282080214551</v>
+        <v>0.9690438170690868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02693174016323</v>
+        <v>1.042564719233765</v>
       </c>
       <c r="J22">
-        <v>1.029168322311654</v>
+        <v>0.9778949394108092</v>
       </c>
       <c r="K22">
-        <v>1.034382321088581</v>
+        <v>0.981129505723399</v>
       </c>
       <c r="L22">
-        <v>1.026818749450045</v>
+        <v>0.976479683882495</v>
       </c>
       <c r="M22">
-        <v>1.041982400851842</v>
+        <v>0.9852545183487129</v>
       </c>
       <c r="N22">
-        <v>1.030629859376593</v>
+        <v>0.97928366239089</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022712111476121</v>
+        <v>0.9472226514843488</v>
       </c>
       <c r="D23">
-        <v>1.031083012147884</v>
+        <v>0.9671393672103715</v>
       </c>
       <c r="E23">
-        <v>1.02346787905059</v>
+        <v>0.9622538124944433</v>
       </c>
       <c r="F23">
-        <v>1.038743396156531</v>
+        <v>0.9715525844070946</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026931330805649</v>
+        <v>1.042799923873307</v>
       </c>
       <c r="J23">
-        <v>1.029511597369375</v>
+        <v>0.9797449174452937</v>
       </c>
       <c r="K23">
-        <v>1.03474257151792</v>
+        <v>0.983062504025061</v>
       </c>
       <c r="L23">
-        <v>1.027156838236897</v>
+        <v>0.9782808815030835</v>
       </c>
       <c r="M23">
-        <v>1.042373862986745</v>
+        <v>0.987383024851532</v>
       </c>
       <c r="N23">
-        <v>1.03097362192427</v>
+        <v>0.9811362676063786</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02459459743006</v>
+        <v>0.9575689156378651</v>
       </c>
       <c r="D24">
-        <v>1.032778263944243</v>
+        <v>0.9759786342133318</v>
       </c>
       <c r="E24">
-        <v>1.02507843439421</v>
+        <v>0.9705946478931481</v>
       </c>
       <c r="F24">
-        <v>1.040558423285645</v>
+        <v>0.9811386592517946</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026924373739448</v>
+        <v>1.043664276196793</v>
       </c>
       <c r="J24">
-        <v>1.030861851826503</v>
+        <v>0.9868041614035759</v>
       </c>
       <c r="K24">
-        <v>1.036159606788946</v>
+        <v>0.9904411459191939</v>
       </c>
       <c r="L24">
-        <v>1.028487056196542</v>
+        <v>0.9851586123290009</v>
       </c>
       <c r="M24">
-        <v>1.043912654057195</v>
+        <v>0.9955053002596722</v>
       </c>
       <c r="N24">
-        <v>1.032325793897604</v>
+        <v>0.9882055365007881</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026778679444768</v>
+        <v>0.9689583399708266</v>
       </c>
       <c r="D25">
-        <v>1.034745646895736</v>
+        <v>0.9857470881792965</v>
       </c>
       <c r="E25">
-        <v>1.026948477443206</v>
+        <v>0.9798211435004475</v>
       </c>
       <c r="F25">
-        <v>1.042662381955979</v>
+        <v>0.9917189358158388</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026905197884748</v>
+        <v>1.044544024054593</v>
       </c>
       <c r="J25">
-        <v>1.032426349183352</v>
+        <v>0.9945775231764856</v>
       </c>
       <c r="K25">
-        <v>1.037801493402287</v>
+        <v>0.998570766631251</v>
       </c>
       <c r="L25">
-        <v>1.030029086875936</v>
+        <v>0.9927410012591193</v>
       </c>
       <c r="M25">
-        <v>1.04569349975558</v>
+        <v>1.004447179435083</v>
       </c>
       <c r="N25">
-        <v>1.03389251302015</v>
+        <v>0.9959899373390326</v>
       </c>
     </row>
   </sheetData>
